--- a/biology/Botanique/Lamier_jaune/Lamier_jaune.xlsx
+++ b/biology/Botanique/Lamier_jaune/Lamier_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium galeobdolon
 Le Lamier jaune ou ortie jaune (Lamium galeobdolon) est une espèce de plantes herbacées de la famille des Lamiaceae.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamier est la francisation de Lamium issu du latin lamia, tiré du même mot grec désignant une créature monstrueuse (Lamia, ogresse dans la mythologie grecque), provenant de laimos, « gorge, gosier ». La corolle bilabiée des lamiers peut évoquer, pour un esprit imaginatif, une gueule ouverte. 
-L'épithète galeobdolon est construite sur le grec galê, « belette, putois », et bdolos, « puanteur », en référence aux feuilles qui dégagent une odeur désagréable lorsqu'on les froisse[1].
+L'épithète galeobdolon est construite sur le grec galê, « belette, putois », et bdolos, « puanteur », en référence aux feuilles qui dégagent une odeur désagréable lorsqu'on les froisse.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C'est une espèce de plante vivace moyenne (40 cm maximum) qui pousse dans les endroits ombragés.
 Organes reproducteurs
@@ -560,7 +576,7 @@
 Dissémination : myrmécochore
 Habitat et répartition
 Habitat type : sous-bois herbacés médioeuropéens, planitiaires à montagnards
-Aire de répartition : eurasiatique[2]</t>
+Aire de répartition : eurasiatique</t>
         </is>
       </c>
     </row>
@@ -590,11 +606,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sauvage comestible
-Les feuilles du lamier jaune sont comestibles et peuvent être consommées crues ou cuites[3]. On peut utiliser les fleurs en décoration de plats. Malgré leur forte odeur, les feuilles ont un goût relativement doux.
-Ornementale et invasive
-Des cultivars panachés font office de couvre-sol. 
-Ils sont aussi proposés comme fixateurs d'azote autour des arbres fruitiers. Cependant leur potentiel invasif dans des milieux naturels forestiers les font considérer comme nocifs en Amérique du Nord tel qu'au Québec, dans l'état de Washington, le Wisconsin et le nord-ouest des USA[4].
+          <t>Sauvage comestible</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles du lamier jaune sont comestibles et peuvent être consommées crues ou cuites. On peut utiliser les fleurs en décoration de plats. Malgré leur forte odeur, les feuilles ont un goût relativement doux.
 </t>
         </is>
       </c>
@@ -620,14 +638,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Synonymes</t>
+          <t>Utilisations</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Galeobdolon luteum Huds ;
-Galeopsis galeobdolon L. (basionym) ;
-Lamiastrum galeobdolon (L.) Ehrend. &amp; Polatschek.</t>
+          <t>Ornementale et invasive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des cultivars panachés font office de couvre-sol. 
+Ils sont aussi proposés comme fixateurs d'azote autour des arbres fruitiers. Cependant leur potentiel invasif dans des milieux naturels forestiers les font considérer comme nocifs en Amérique du Nord tel qu'au Québec, dans l'état de Washington, le Wisconsin et le nord-ouest des USA.
+</t>
         </is>
       </c>
     </row>
@@ -652,10 +676,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Galeobdolon luteum Huds ;
+Galeopsis galeobdolon L. (basionym) ;
+Lamiastrum galeobdolon (L.) Ehrend. &amp; Polatschek.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lamier_jaune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamier_jaune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamium galeobdolon ssp. argentatum
 Lamium galeobdolon ssp. endtmanii
